--- a/原创-数据安全/3.数据安全-数据生命周期检查项.xlsx
+++ b/原创-数据安全/3.数据安全-数据生命周期检查项.xlsx
@@ -4,21 +4,61 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" activeTab="4"/>
+    <workbookView windowWidth="19200" windowHeight="7130"/>
   </bookViews>
   <sheets>
-    <sheet name="数据采集阶段" sheetId="1" r:id="rId1"/>
-    <sheet name="数据共享和传输" sheetId="2" r:id="rId2"/>
-    <sheet name="数据存储阶段" sheetId="3" r:id="rId3"/>
-    <sheet name="数据处理和分析阶段" sheetId="4" r:id="rId4"/>
-    <sheet name="数据销毁阶段" sheetId="5" r:id="rId5"/>
+    <sheet name="总览" sheetId="6" r:id="rId1"/>
+    <sheet name="数据产生或采集阶段" sheetId="1" r:id="rId2"/>
+    <sheet name="数据共享和传输" sheetId="2" r:id="rId3"/>
+    <sheet name="数据存储阶段" sheetId="3" r:id="rId4"/>
+    <sheet name="数据处理和分析阶段" sheetId="4" r:id="rId5"/>
+    <sheet name="数据销毁阶段" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+  <si>
+    <t>数据生命周期</t>
+  </si>
+  <si>
+    <t>解释</t>
+  </si>
+  <si>
+    <t>数据安全项</t>
+  </si>
+  <si>
+    <t>数据采集</t>
+  </si>
+  <si>
+    <t>采集或注册</t>
+  </si>
+  <si>
+    <t>数据产生</t>
+  </si>
+  <si>
+    <t>业务过程中产生</t>
+  </si>
+  <si>
+    <t>数据传输</t>
+  </si>
+  <si>
+    <t>系统间传输，从外到内，从内到外</t>
+  </si>
+  <si>
+    <t>数据共享</t>
+  </si>
+  <si>
+    <t>公司间共享</t>
+  </si>
+  <si>
+    <t>数据存储</t>
+  </si>
+  <si>
+    <t>数据处理及分析</t>
+  </si>
   <si>
     <t>检查项</t>
   </si>
@@ -105,14 +145,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,48 +603,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -621,97 +657,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,16 +1103,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="13.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="18.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="25.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="21.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="14.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1093,35 +1128,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1129,69 +1179,54 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="15.8909090909091" customWidth="1"/>
+    <col min="2" max="2" width="13.5545454545455" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="4:4">
-      <c r="D26" s="1"/>
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1203,34 +1238,69 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1242,45 +1312,38 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="5:5">
-      <c r="E14" s="1"/>
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1288,27 +1351,73 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
